--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="29970" yWindow="2010" windowWidth="21300" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="edit" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="add" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="delete" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -48,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -395,25 +398,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col width="19.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12.140625" customWidth="1" min="2" max="2"/>
+    <col width="19.5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.1640625" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="16.42578125" customWidth="1" min="5" max="5"/>
-    <col width="17.28515625" customWidth="1" min="6" max="6"/>
-    <col width="14.42578125" customWidth="1" min="7" max="7"/>
-    <col width="18.42578125" customWidth="1" min="8" max="8"/>
-    <col width="22.42578125" customWidth="1" min="9" max="9"/>
-    <col width="24.5703125" customWidth="1" min="10" max="10"/>
-    <col width="23.28515625" customWidth="1" min="11" max="11"/>
+    <col width="16.5" customWidth="1" min="5" max="5"/>
+    <col width="17.33203125" customWidth="1" min="6" max="6"/>
+    <col width="14.5" customWidth="1" min="7" max="7"/>
+    <col width="18.5" customWidth="1" min="8" max="8"/>
+    <col width="22.5" customWidth="1" min="9" max="9"/>
+    <col width="24.5" customWidth="1" min="10" max="10"/>
+    <col width="23.33203125" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,17 +427,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>44399.61738030092</v>
+      <c r="A2" s="2" t="n">
+        <v>44406.44637040509</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flatrate</t>
+          <t>efasdfasfd dfdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Preis pro Minute</t>
+          <t>Preis nach 45 (pro min)</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -442,215 +445,135 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44399.61863528935</v>
+      <c r="A3" s="3" t="n">
+        <v>44406.46248787037</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flatrate</t>
+          <t>sfasdf asdfasdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Preis pro Minute</t>
+          <t>Preis nach 45 (pro min)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44399.61869388889</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Flatrate</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Preis pro Minute</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44399.61971190972</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Lime</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44399.61974363426</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Lime</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44399.61979304398</v>
-      </c>
-      <c r="B7" t="n">
-        <v>160</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Lime</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44399.61981922454</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Lime</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44399.62444915509</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Lime Normal</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Preis pro Minute</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44399.62448369213</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Lime Normal</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Preis pro Minute</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44399.62451554398</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Lime Normal</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Preis pro Minute</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44399.62455841435</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Lime Normal</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Preis pro Minute</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44399.62461642361</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Lime Normal</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Preis pro Minute</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44399.6246457012</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Lime Normal</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Preis pro Minute</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
+        <v>33333</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n">
+        <v>44406.46188650463</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>testr</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n">
+        <v>44406.4582191088</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lime Tester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>44406.46273907407</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>testr test</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>44406.46295169412</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sfasdf asdfasdf</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,24 @@
         <v>33333</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>44406.81638266204</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TESTT testtt</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -474,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +539,48 @@
         <v>0</v>
       </c>
       <c r="L1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>44406.81624738426</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TESTT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>testtt</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -535,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,11 +625,21 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44406.46295169412</v>
+        <v>44406.46295168981</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>sfasdf asdfasdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>44406.81644014514</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TESTT testtt</t>
         </is>
       </c>
     </row>

--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,42 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>44406.84303658565</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dfdddd ssasasasa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>108876</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44406.84466823153</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -492,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +617,90 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>44406.83664861111</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cvyyxcv</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>yxcvyxcv</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>48</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>44406.83678245371</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dfdddd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ssasasasa</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>222</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22222</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -595,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,11 +755,21 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44406.81644014514</v>
+        <v>44406.81644015046</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>TESTT testtt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>44406.84314761574</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cvyyxcv yxcvyxcv</t>
         </is>
       </c>
     </row>

--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44406.84466823153</v>
+        <v>44406.84466822917</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -514,6 +514,24 @@
       </c>
       <c r="D6" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>44406.8651080787</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tier Summer Pass</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,6 +719,48 @@
         <v>22222</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>44406.86536173611</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsfasdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>dfddddd</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22222</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>222</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -715,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +833,16 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44406.8656064424</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dsfasdf dfddddd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>44407.37893253472</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dfdddd ssasasasa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -546,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,6 +779,48 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44407.37917668981</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,7 +835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,11 +895,21 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44406.8656064424</v>
+        <v>44406.86560644676</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>dsfasdf dfddddd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>44407.37931336466</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dfdddd ssasasasa</t>
         </is>
       </c>
     </row>

--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,42 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>44407.59679743055</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Test test</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>44407.59761186101</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dagmars tarif</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -564,7 +600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,6 +857,48 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>44407.59712668981</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dagmars</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tarif</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -835,7 +913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,11 +983,21 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>44407.37931336466</v>
+        <v>44407.37931336805</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>dfdddd ssasasasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>44407.59746509259</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Test test</t>
         </is>
       </c>
     </row>

--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -572,7 +572,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>44407.59761186101</v>
+        <v>44407.59761186343</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,6 +1001,16 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>44412.44956898173</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dagmars tarif</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,78 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>44413.67204947917</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bird Normal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>44413.67266009259</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bird Normal</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>44413.67277153935</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bird Normal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>44413.67351279547</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bird Normal</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,7 +1075,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>44412.44956898173</v>
+        <v>44412.44956898148</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>

--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>44413.67351279547</v>
+        <v>44413.67351280092</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -657,6 +657,42 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>44413.6945337037</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bird Normal</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>44413.70106576352</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bird Normal</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Gründgebühr</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>

--- a/log_in.xlsx
+++ b/log_in.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>44413.70106576352</v>
+        <v>44413.70106576389</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,6 +1007,48 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>44413.71606891204</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Test01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Test10</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1021,7 +1063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,6 +1161,16 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>44413.71625334924</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Test01 Test10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
